--- a/Fisica-Experimental/Semana.7.1.xlsx
+++ b/Fisica-Experimental/Semana.7.1.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="disco_menor" sheetId="1" r:id="rId1"/>
-    <sheet name="disco_mayor" sheetId="2" r:id="rId2"/>
+    <sheet name="disco_menor_CM" sheetId="1" r:id="rId1"/>
+    <sheet name="disco_mayor_CM" sheetId="2" r:id="rId2"/>
+    <sheet name="punto_giratorio_mayor_DMA" sheetId="3" r:id="rId3"/>
+    <sheet name="punto_giratorio_menor_DME" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>t</t>
   </si>
@@ -397,7 +399,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,4 +3200,2812 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1.2340649999999999E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-2.6393229999999998E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.9135789999999999E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-115.05929999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>270</v>
+      </c>
+      <c r="O2" s="1">
+        <v>199.8897</v>
+      </c>
+      <c r="P2" s="1">
+        <v>229.15100000000001</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3.3366699999999999E-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.221123E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2.782072E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0382669999999999E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.186351E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-5.213765E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.2476570000000001E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-113.6979</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43.707189999999997</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>271</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.186351E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-5.213765E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.2476570000000001E-3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>198.43440000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <v>221.87430000000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.4333520000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6.6733399999999998E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.0881630000000001E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-2.6741159999999998E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.8870390000000001E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.6649389999999999E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-5.8221989999999999E-5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.6652389999999999E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-112.1426</v>
+      </c>
+      <c r="I4" s="1">
+        <v>102.8139</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>272</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.6649389999999999E-3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-5.8221989999999999E-5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.6652389999999999E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>197.3098</v>
+      </c>
+      <c r="P4" s="1">
+        <v>214.5976</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3.1460389999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.1001001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-8.4308199999999999E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-2.7859579999999998E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.9107299999999998E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.5902840000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-3.9148719999999998E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.6653809999999998E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-106.8368</v>
+      </c>
+      <c r="I5" s="1">
+        <v>145.15940000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>273</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6.5902840000000001E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-3.9148719999999998E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7.6653809999999998E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>196.3175</v>
+      </c>
+      <c r="P5" s="1">
+        <v>207.9162</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5.839978E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.1334668</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-6.4837059999999999E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-2.9353690000000002E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0061229999999999E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.4706390000000002E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1.3759690000000001E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.6410269999999998E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-102.4556</v>
+      </c>
+      <c r="I6" s="1">
+        <v>110.9773</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>274</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.4706390000000002E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1.3759690000000001E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.6410269999999998E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>195.3252</v>
+      </c>
+      <c r="P6" s="1">
+        <v>201.10249999999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>8.2942840000000003E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.1668335</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-4.7800769999999999E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-2.8777809999999998E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.9172099999999999E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.5379840000000001E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.067413E-4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5661900000000004E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-99.430890000000005</v>
+      </c>
+      <c r="I7" s="1">
+        <v>84.881839999999997</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>275</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4.5379840000000001E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5.067413E-4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.5661900000000004E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>194.333</v>
+      </c>
+      <c r="P7" s="1">
+        <v>193.82579999999999</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.009261E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.20020019999999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-3.4553550000000001E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-2.901552E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.9220539999999999E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.815448E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-6.2084429999999995E-4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.8553049999999999E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-96.791169999999994</v>
+      </c>
+      <c r="I8" s="1">
+        <v>95.291370000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>276</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.815448E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-6.2084429999999995E-4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4.8553049999999999E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>193.20840000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>186.7475</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.143849E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.23356689999999999</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1.5665650000000001E-4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-2.919212E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.9234119999999998E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.7210899999999998E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-5.2578520000000004E-4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.7502780000000001E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-93.071770000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>92.854290000000006</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>277</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.7210899999999998E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-5.2578520000000004E-4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.7502780000000001E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>192.28219999999999</v>
+      </c>
+      <c r="P9" s="1">
+        <v>179.7354</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.333552E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.26693359999999999</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3.0481140000000001E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-2.936639E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.936798E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.0450520000000004E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.6302070000000001E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.2610089999999997E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-90.59469</v>
+      </c>
+      <c r="I10" s="1">
+        <v>121.21939999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>278</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6.0450520000000004E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.6302070000000001E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6.2610089999999997E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>191.22380000000001</v>
+      </c>
+      <c r="P10" s="1">
+        <v>172.72329999999999</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.4609250000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.30030030000000002</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.4675039999999998E-4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-2.8104229999999998E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.8212340000000002E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.9483009999999996E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.068082E-4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.9621960000000003E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-84.982389999999995</v>
+      </c>
+      <c r="I11" s="1">
+        <v>116.48820000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>279</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5.9483009999999996E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4.068082E-4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5.9621960000000003E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>190.43</v>
+      </c>
+      <c r="P11" s="1">
+        <v>165.38040000000001</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.765537E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.33366699999999999</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.6646919999999998E-4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-2.9094920000000001E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.9324809999999998E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.0288300000000002E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1.179996E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.250569E-3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-82.821029999999993</v>
+      </c>
+      <c r="I12" s="1">
+        <v>57.145699999999998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>280</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.0288300000000002E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1.179996E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3.250569E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>189.17310000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>158.3021</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.9209310000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.36703370000000002</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.4887459999999997E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-2.8891680000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.9238290000000002E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.0857510000000004E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.4705740000000001E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.2183910000000002E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-81.168869999999998</v>
+      </c>
+      <c r="I13" s="1">
+        <v>160.10589999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
+        <v>281</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.0857510000000004E-3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.4705740000000001E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>8.2183910000000002E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>188.04849999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <v>151.15770000000001</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.0058049999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.40040039999999999</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.0605890000000004E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-2.8113550000000002E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.9537539999999998E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.3613E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.9250029999999998E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.4167549999999999E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-72.136619999999994</v>
+      </c>
+      <c r="I14" s="1">
+        <v>277.09070000000003</v>
+      </c>
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>282</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.3613E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3.9250029999999998E-3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.4167549999999999E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>190.3638</v>
+      </c>
+      <c r="P14" s="1">
+        <v>147.78389999999999</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.469564E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.43376710000000002</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.357317E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-2.627239E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.9571430000000002E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.135749E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.2778579999999998E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.182104E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-62.677660000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>222.2225</v>
+      </c>
+      <c r="J15" s="1">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>283</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.135749E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.2778579999999998E-3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.182104E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>192.74529999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>143.6825</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2.9569370000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.46713379999999999</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.663983E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-2.5926130000000001E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.0806620000000001E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.0242859999999994E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.8974000000000006E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.199194E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-57.306959999999997</v>
+      </c>
+      <c r="I16" s="1">
+        <v>235.15979999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1">
+        <v>284</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9.0242859999999994E-3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7.8974000000000006E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.199194E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>194.53139999999999</v>
+      </c>
+      <c r="P16" s="1">
+        <v>140.6395</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3.2655520000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.50050050000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.9595379999999998E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-2.100219E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.8724039999999998E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0446759999999999E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.10799E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.5228230000000001E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-46.984650000000002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>287.39980000000003</v>
+      </c>
+      <c r="J17" s="1">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>285</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.0446759999999999E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.10799E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.5228230000000001E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>196.71440000000001</v>
+      </c>
+      <c r="P17" s="1">
+        <v>136.60419999999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3.8398379999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.53386719999999999</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.3611309999999998E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-1.8532139999999999E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.0015559999999998E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.034414E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7.6009129999999999E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.2836480000000001E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-38.127800000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>239.33940000000001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>286</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.034414E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7.6009129999999999E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.2836480000000001E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>198.5667</v>
+      </c>
+      <c r="P18" s="1">
+        <v>132.37049999999999</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4.3113129999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.56723389999999996</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.6498379999999998E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-1.592984E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0918019999999998E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.30673E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.6845420000000008E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.1557039999999999E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-31.012720000000002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>219.90299999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1">
+        <v>287</v>
+      </c>
+      <c r="L19" s="1">
+        <v>6.30673E-3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9.6845420000000008E-3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.1557039999999999E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>200.2867</v>
+      </c>
+      <c r="P19" s="1">
+        <v>128.53360000000001</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.6999920000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.60060060000000004</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.7820000000000002E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.2069310000000001E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.0325249999999999E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.49942E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.2137480000000001E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.263187E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-23.452919999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>237.06020000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1">
+        <v>288</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3.49942E-3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.2137480000000001E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.263187E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>202.0728</v>
+      </c>
+      <c r="P20" s="1">
+        <v>124.16759999999999</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5.1080400000000003E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.63396730000000001</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.8833660000000001E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-7.8300880000000002E-4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.987792E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.343831E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.2898160000000001E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.2967970000000001E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-15.19289</v>
+      </c>
+      <c r="I21" s="1">
+        <v>248.434</v>
+      </c>
+      <c r="J21" s="1">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1">
+        <v>289</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.343831E-3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.2898160000000001E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.2967970000000001E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>203.13120000000001</v>
+      </c>
+      <c r="P21" s="1">
+        <v>119.93380000000001</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5.5439130000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.66733399999999998</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.8716789999999998E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-3.461933E-4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.8924710000000002E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.9962449999999998E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.139283E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.1566399999999999E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-6.8740810000000003</v>
+      </c>
+      <c r="I22" s="1">
+        <v>221.19720000000001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1">
+        <v>290</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.9962449999999998E-3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.139283E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.1566399999999999E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>204.3219</v>
+      </c>
+      <c r="P22" s="1">
+        <v>115.56780000000001</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>5.980885E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.70070069999999995</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0165819999999999E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-2.2726289999999999E-5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0166680000000001E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.4340690000000001E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.101857E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.11115E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.43164599999999997</v>
+      </c>
+      <c r="I23" s="1">
+        <v>214.95480000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1">
+        <v>291</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.4340690000000001E-3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.101857E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.11115E-2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>205.44649999999999</v>
+      </c>
+      <c r="P23" s="1">
+        <v>111.59869999999999</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>6.3353259999999996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.73406740000000004</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.967379E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.8911309999999999E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.9927830000000002E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-3.2574069999999999E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.2818E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.322542E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7.4705849999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>254.70740000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1">
+        <v>292</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-3.2574069999999999E-3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.2818E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.322542E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>206.24039999999999</v>
+      </c>
+      <c r="P24" s="1">
+        <v>107.23260000000001</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>6.7500939999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.76743410000000001</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.799204E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.3266239999999999E-4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.9204230000000001E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-5.0329270000000004E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.5927589999999998E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.6703849999999999E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>16.565840000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>320.95499999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>23</v>
+      </c>
+      <c r="K25" s="1">
+        <v>293</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-5.0329270000000004E-3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.5927589999999998E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.6703849999999999E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>206.70339999999999</v>
+      </c>
+      <c r="P25" s="1">
+        <v>102.6681</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>7.2244550000000003E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.80080079999999998</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.6315150000000001E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.4520150000000001E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0055310000000001E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-4.4890269999999996E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9.350667E-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.037238E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>28.888999999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>204.78</v>
+      </c>
+      <c r="J26" s="1">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1">
+        <v>294</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-4.4890269999999996E-3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9.350667E-3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.037238E-2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>207.43109999999999</v>
+      </c>
+      <c r="P26" s="1">
+        <v>98.103639999999999</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>7.8661080000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.83416749999999995</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.499636E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.4566640000000001E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.8931040000000001E-3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>30.23151</v>
+      </c>
+      <c r="J27" s="1">
+        <v>25</v>
+      </c>
+      <c r="K27" s="1">
+        <v>295</v>
+      </c>
+      <c r="O27" s="1">
+        <v>207.49719999999999</v>
+      </c>
+      <c r="P27" s="1">
+        <v>94.729879999999994</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>7.9980680000000005E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.9048170000000001E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.7491899999999999E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.924554E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>171.78729999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>270</v>
+      </c>
+      <c r="O3" s="1">
+        <v>164.7525</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5.7920790000000002</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3.3366699999999999E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.066479E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.3103430000000001E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0928259999999999E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-2.419816E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.6569499999999998E-5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.4213640000000001E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>170.899</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.1435050000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>271</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-2.419816E-3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>8.6569499999999998E-5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.4213640000000001E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>164.38120000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>15.81683</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.7112470000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6.6733399999999998E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.0662990000000002E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.8069599999999998E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.085277E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.243087E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1.7200399999999999E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.7716030000000001E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>172.26400000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45.622959999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>272</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.243087E-4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1.7200399999999999E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.7716030000000001E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>163.78710000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>25.61881</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.214634E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.1001001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-2.038163E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.1625020000000001E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0496030000000001E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.6468749999999996E-4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.8224740000000002E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.8827250000000001E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>173.9435</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-133.50729999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>273</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7.6468749999999996E-4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.8224740000000002E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.8827250000000001E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>163.49010000000001</v>
+      </c>
+      <c r="P6" s="1">
+        <v>35.569310000000002</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.9178320000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.1334668</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2.0152690000000001E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0251619999999995E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.10341E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-2.7132879999999999E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.4676500000000001E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.1038619999999998E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>163.3546</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-129.13290000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>274</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-2.7132879999999999E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5.4676500000000001E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6.1038619999999998E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>162.97030000000001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>44.925739999999998</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6.7872709999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.1668335</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-2.21923E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.8112509999999997E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.2940550000000001E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.4509769999999999E-4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.2335099999999999E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.392012E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>165.3261</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-37.517069999999997</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>275</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.4509769999999999E-4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.2335099999999999E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.392012E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>162.15350000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>54.727719999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>8.8380719999999998E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.20020019999999999</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1.9722189999999999E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.8483249999999997E-4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.0877370000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0218550000000004E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.9595950000000002E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.4738490000000002E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>160.851</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-80.529290000000003</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>276</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.0218550000000004E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.9595950000000002E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.4738490000000002E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>162.2277</v>
+      </c>
+      <c r="P9" s="1">
+        <v>64.381190000000004</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.151706E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.23356689999999999</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1.9508380000000001E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.1189560000000003E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0766719999999999E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.23208E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.1788189999999998E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.119204E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>159.9521</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-79.920289999999994</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>277</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.23208E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.1788189999999998E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.119204E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>162.005</v>
+      </c>
+      <c r="P10" s="1">
+        <v>74.108909999999995</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.186196E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.26693359999999999</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1.8232649999999999E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.302324E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.0033920000000001E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.6064370000000001E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.7158039999999997E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.9819119999999998E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>155.51759999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-135.80279999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>278</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.6064370000000001E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4.7158039999999997E-3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.9819119999999998E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>161.55940000000001</v>
+      </c>
+      <c r="P11" s="1">
+        <v>83.910889999999995</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.3602029999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.30030030000000002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-1.8436349999999999E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.026597E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.1101879999999998E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1.249043E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.4563010000000002E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.6750680000000001E-3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>150.8895</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-69.08278</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1">
+        <v>279</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1.249043E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.4563010000000002E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3.6750680000000001E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>161.48509999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <v>93.63861</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.557622E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.33366699999999999</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-1.9066179999999999E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.0608830000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.1818950000000001E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.910447E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.4386729999999999E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.3915659999999999E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>150.9075</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-61.137790000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>280</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.910447E-3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.4386729999999999E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.3915659999999999E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>160.96530000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>103.14360000000001</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.629332E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.36703370000000002</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-1.7161450000000001E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.122605E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0507059999999998E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.6511250000000003E-4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-5.8301170000000001E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.8361419999999999E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>146.80959999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>142.56659999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1">
+        <v>281</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.6511250000000003E-4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-5.8301170000000001E-3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5.8361419999999999E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>161.03960000000001</v>
+      </c>
+      <c r="P14" s="1">
+        <v>112.9455</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.829556E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.40040039999999999</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-1.888926E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.7181960000000003E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.0048399999999999E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-5.8160260000000002E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1.6470269999999999E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.7467E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>160.42140000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>487.7758</v>
+      </c>
+      <c r="J15" s="1">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <v>282</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-5.8160260000000002E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1.6470269999999999E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.7467E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>152.797</v>
+      </c>
+      <c r="P15" s="1">
+        <v>112.3515</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2.3123190000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.43376710000000002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-2.1042679999999999E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.348757E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.1043989999999999E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-7.5655959999999995E-4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1.8394130000000002E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.8409680000000001E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>179.3605</v>
+      </c>
+      <c r="I16" s="1">
+        <v>532.96669999999995</v>
+      </c>
+      <c r="J16" s="1">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1">
+        <v>283</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-7.5655959999999995E-4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-1.8394130000000002E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.8409680000000001E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>143.81190000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <v>111.1634</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.9954780000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.46713379999999999</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1.939414E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-5.5568309999999999E-4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.017451E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.7804570000000001E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.7254559999999999E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.8197069999999999E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>195.9881</v>
+      </c>
+      <c r="I17" s="1">
+        <v>508.27350000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>14</v>
+      </c>
+      <c r="K17" s="1">
+        <v>284</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5.7804570000000001E-3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1.7254559999999999E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.8197069999999999E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>135.8663</v>
+      </c>
+      <c r="P17" s="1">
+        <v>110.1238</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3.597654E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.50050050000000001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-1.718518E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-1.127968E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.0556300000000001E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.7921819999999999E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1.34655E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.555756E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>213.27930000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>445.15949999999998</v>
+      </c>
+      <c r="J18" s="1">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1">
+        <v>285</v>
+      </c>
+      <c r="L18" s="1">
+        <v>7.7921819999999999E-3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-1.34655E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.555756E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>128.51490000000001</v>
+      </c>
+      <c r="P18" s="1">
+        <v>109.1584</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4.2110910000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.53386719999999999</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-1.419415E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-1.454281E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.0321599999999999E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.3597039999999999E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1.110535E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.755586E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>225.6951</v>
+      </c>
+      <c r="I19" s="1">
+        <v>498.41140000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1">
+        <v>286</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.3597039999999999E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-1.110535E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.755586E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>121.5347</v>
+      </c>
+      <c r="P19" s="1">
+        <v>107.5248</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.6537460000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.56723389999999996</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-8.1114170000000005E-4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.869066E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.0374880000000001E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.7366260000000001E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-6.9952809999999999E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.872221E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>246.54</v>
+      </c>
+      <c r="I20" s="1">
+        <v>548.1893</v>
+      </c>
+      <c r="J20" s="1">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1">
+        <v>287</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.7366260000000001E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-6.9952809999999999E-3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.872221E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>114.85</v>
+      </c>
+      <c r="P20" s="1">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5.3899810000000003E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.60060060000000004</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-2.6050539999999999E-4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1.9211E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.9386819999999999E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.667981E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-4.9429929999999997E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.739682E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>262.27769999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>468.7158</v>
+      </c>
+      <c r="J21" s="1">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1">
+        <v>288</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.667981E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-4.9429929999999997E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.739682E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>108.95</v>
+      </c>
+      <c r="P21" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5.9430699999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.63396730000000001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.0195869999999998E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-2.1989280000000002E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.2195639999999998E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.8171659999999999E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-9.0724130000000003E-4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.81943E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>277.81900000000002</v>
+      </c>
+      <c r="I22" s="1">
+        <v>500.28840000000002</v>
+      </c>
+      <c r="J22" s="1">
+        <v>19</v>
+      </c>
+      <c r="K22" s="1">
+        <v>289</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.8171659999999999E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-9.0724130000000003E-4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.81943E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>100.3</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6.5704090000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.66733399999999998</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9.5215149999999999E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-1.9816439999999999E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.198523E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.6943050000000001E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.6567699999999994E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.902647E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>295.66359999999997</v>
+      </c>
+      <c r="I23" s="1">
+        <v>504.19869999999997</v>
+      </c>
+      <c r="J23" s="1">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1">
+        <v>290</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.6943050000000001E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8.6567699999999994E-3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.902647E-2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>96.45</v>
+      </c>
+      <c r="P23" s="1">
+        <v>96.55</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>7.2559479999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.70070069999999995</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.432626E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-1.6212329999999999E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.163519E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.375286E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.121976E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.774891E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>311.46589999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>463.60660000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>21</v>
+      </c>
+      <c r="K24" s="1">
+        <v>291</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.375286E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.121976E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.774891E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>90</v>
+      </c>
+      <c r="P24" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>7.8565739999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.73406740000000004</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.8699260000000001E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-1.2329109999999999E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.2397979999999999E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.9383389999999992E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.6752070000000001E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.9478249999999999E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>326.60169999999999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>524.93089999999995</v>
+      </c>
+      <c r="J25" s="1">
+        <v>22</v>
+      </c>
+      <c r="K25" s="1">
+        <v>292</v>
+      </c>
+      <c r="L25" s="1">
+        <v>9.9383389999999992E-3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.6752070000000001E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.9478249999999999E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>87.85</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>8.4414039999999996E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.76743410000000001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.0958449999999998E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-5.0331029999999997E-4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.1554320000000001E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.667448E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.892133E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.899466E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>346.49630000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <v>513.37570000000005</v>
+      </c>
+      <c r="J26" s="1">
+        <v>23</v>
+      </c>
+      <c r="K26" s="1">
+        <v>293</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.667448E-3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.892133E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.899466E-2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="P26" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>9.2051819999999993E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.80080079999999998</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.9812010000000001E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.9773250000000002E-5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.9814239999999999E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-7.6524270000000007E-5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.320003E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.320025E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>360.86099999999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>355.75220000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1">
+        <v>294</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-7.6524270000000007E-5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.320003E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.320025E-2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="P27" s="1">
+        <v>77.55</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>9.7504529999999992E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0.83416749999999995</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.0907389999999999E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.775726E-4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.1245579999999999E-3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>370.23689999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1">
+        <v>295</v>
+      </c>
+      <c r="O28" s="1">
+        <v>59.05</v>
+      </c>
+      <c r="P28" s="1">
+        <v>73.05</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.011509E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fisica-Experimental/Semana.7.1.xlsx
+++ b/Fisica-Experimental/Semana.7.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="disco_menor_CM" sheetId="1" r:id="rId1"/>
@@ -131,6 +131,2084 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>punto_giratorio_mayor_DMA!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>angulo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>punto_giratorio_mayor_DMA!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3366699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6733399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1001001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1334668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1668335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20020019999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23356689999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26693359999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30030030000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33366699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36703370000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40040039999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43376710000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46713379999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50050050000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53386719999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56723389999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60060060000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63396730000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66733399999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70070069999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73406740000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76743410000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80080079999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83416749999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>punto_giratorio_mayor_DMA!$H$2:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-115.05929999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-113.6979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-112.1426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-106.8368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-102.4556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-99.430890000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-96.791169999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-93.071770000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-90.59469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-84.982389999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-82.821029999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-81.168869999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-72.136619999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-62.677660000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-57.306959999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-46.984650000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-38.127800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-31.012720000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-23.452919999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-15.19289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.8740810000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.43164599999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4705849999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.565840000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.23151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-400B-44C5-A381-BDEC66E237CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515643240"/>
+        <c:axId val="515650784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515643240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515650784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515650784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515643240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>punto_giratorio_menor_DME!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>angulo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>punto_giratorio_menor_DME!$A$3:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3366699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6733399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1001001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1334668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1668335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20020019999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23356689999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26693359999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30030030000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33366699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36703370000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40040039999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43376710000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46713379999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50050050000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53386719999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56723389999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60060060000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63396730000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66733399999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70070069999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73406740000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76743410000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80080079999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83416749999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>punto_giratorio_menor_DME!$H$3:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>171.78729999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.26400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.9435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.3546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165.3261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.9521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155.51759999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.8895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.9075</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>146.80959999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160.42140000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>179.3605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195.9881</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>213.27930000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>225.6951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>246.54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262.27769999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277.81900000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>295.66359999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>311.46589999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>326.60169999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>346.49630000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>360.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>370.23689999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77E9-4693-99E5-0FC4EE96B794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="517765712"/>
+        <c:axId val="517767024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="517765712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517767024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="517767024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517765712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3206,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="A1:A27 H1:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,6 +6681,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4610,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" activeCellId="1" sqref="A2:A28 H2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6007,5 +8086,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>